--- a/Pubmed/Lassa/ReferenceSummary_Genbank_Dec17.xlsx
+++ b/Pubmed/Lassa/ReferenceSummary_Genbank_Dec17.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/Library/CloudStorage/Dropbox/Shared/___SystematicReviewsAI/LASV/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kaimingtao/HIVDB/GenBankRefs/Pubmed/Lassa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A97E372-7675-394F-9E8D-0C147C5F398F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5975F42E-CC2E-AB47-AF95-5B4C4F2371B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8240" yWindow="3980" windowWidth="37760" windowHeight="21100" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
+    <workbookView xWindow="640" yWindow="500" windowWidth="37760" windowHeight="21100" xr2:uid="{3031CDAD-EDE9-504F-A9EA-0D1529922A9B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -675,8 +675,8 @@
   <dimension ref="A1:W4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V5" sqref="V5"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -686,12 +686,12 @@
     <col min="3" max="3" width="9.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" style="1" hidden="1" customWidth="1"/>
-    <col min="11" max="12" width="13.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="13.1640625" style="1" customWidth="1"/>
     <col min="13" max="13" width="10.83203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="47" style="1" customWidth="1"/>
     <col min="15" max="15" width="12.6640625" style="1" customWidth="1"/>
